--- a/2019.06.05-_第三届绿橘子/2019.7.15_第三届绿橘子近期实习状况.xlsx
+++ b/2019.06.05-_第三届绿橘子/2019.7.15_第三届绿橘子近期实习状况.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>姓名</t>
   </si>
@@ -149,6 +149,19 @@
   </si>
   <si>
     <t>下一步求职计划暂时先看看这边转正情况。</t>
+  </si>
+  <si>
+    <t>陈光</t>
+  </si>
+  <si>
+    <t>目前在实验室写论文
+求职意向是科研院所的科学研究岗位。</t>
+  </si>
+  <si>
+    <t>罗幸</t>
+  </si>
+  <si>
+    <t>后续应该会看不加班的工作，外企国企或者当老师</t>
   </si>
 </sst>
 </file>
@@ -156,10 +169,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -171,14 +184,14 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color theme="0"/>
+      <sz val="24"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -208,14 +221,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,20 +229,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,6 +242,105 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -258,14 +349,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -274,89 +357,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -367,14 +380,122 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor theme="6" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor theme="6" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
-        <bgColor theme="0" tint="-0.149998474074526"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -385,7 +506,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,19 +554,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,145 +566,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,16 +587,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="6" tint="0.399975585192419"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="6" tint="0.399975585192419"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="6" tint="0.399975585192419"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="6" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,11 +618,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,7 +644,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,17 +679,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,225 +698,186 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -889,9 +887,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1227,11 +1222,12 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D3"/>
+      <selection activeCell="B15" sqref="B15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
+    <col min="1" max="1" width="24.4666666666667" customWidth="1"/>
     <col min="3" max="3" width="7.16666666666667" customWidth="1"/>
     <col min="4" max="4" width="31.7833333333333" customWidth="1"/>
     <col min="6" max="6" width="10.3416666666667" customWidth="1"/>
@@ -1240,390 +1236,399 @@
     <col min="11" max="11" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:10">
+    <row r="1" ht="30" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" ht="99" customHeight="1" spans="1:11">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="21"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" ht="258" customHeight="1" spans="1:11">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="21"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" ht="115" customHeight="1" spans="1:11">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="9" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="21"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" ht="183" customHeight="1" spans="1:11">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="11" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="21"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="15"/>
     </row>
     <row r="6" ht="102" customHeight="1" spans="1:11">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="9" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="21"/>
-    </row>
-    <row r="7" ht="87" customHeight="1" spans="1:11">
-      <c r="A7" s="10" t="s">
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" ht="102" customHeight="1" spans="1:11">
+      <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="11" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11" t="s">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="21"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="15"/>
     </row>
     <row r="8" ht="66" customHeight="1" spans="1:11">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="9" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="21"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" ht="206" customHeight="1" spans="1:11">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="11" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="21"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" ht="115" customHeight="1" spans="1:11">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="9" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="21"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="15"/>
     </row>
     <row r="11" ht="166" customHeight="1" spans="1:11">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="11" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="11" t="s">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="21"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="15"/>
     </row>
     <row r="12" ht="110" customHeight="1" spans="1:11">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="9" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="9" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="21"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="15"/>
     </row>
     <row r="13" ht="308" customHeight="1" spans="1:11">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="11" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="11" t="s">
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="21"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" ht="132" customHeight="1" spans="1:11">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="21"/>
-    </row>
-    <row r="15" ht="399" customHeight="1" spans="2:11">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="21"/>
+      <c r="A14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="15"/>
+    </row>
+    <row r="15" ht="167" customHeight="1" spans="1:11">
+      <c r="A15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="15"/>
     </row>
     <row r="16" ht="86" customHeight="1" spans="1:11">
-      <c r="A16" s="18"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="21"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="15"/>
     </row>
     <row r="17" ht="58" customHeight="1" spans="2:11">
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="21"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="15"/>
     </row>
     <row r="18" ht="56" customHeight="1" spans="2:11">
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="21"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="15"/>
     </row>
     <row r="19" ht="329" customHeight="1" spans="2:11">
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="21"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="15"/>
     </row>
     <row r="20" ht="58" customHeight="1" spans="1:11">
-      <c r="A20" s="19"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="22"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="16"/>
     </row>
     <row r="21" ht="182" customHeight="1" spans="1:11">
-      <c r="A21" s="20"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="22"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="16"/>
     </row>
     <row r="22" ht="98" customHeight="1" spans="1:11">
-      <c r="A22" s="20"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="22"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="66">
